--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/artfynd/A 7554-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/artfynd/A 7554-2023.xlsx", "A 7554-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/kartor/A 7554-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/kartor/A 7554-2023.png", "A 7554-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomål/A 7554-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomål/A 7554-2023.docx", "A 7554-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomålsmail/A 7554-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomålsmail/A 7554-2023.docx", "A 7554-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsyn/A 7554-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsyn/A 7554-2023.docx", "A 7554-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsynsmail/A 7554-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsynsmail/A 7554-2023.docx", "A 7554-2023")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/artfynd/A 50118-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/artfynd/A 50118-2022.xlsx", "A 50118-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/kartor/A 50118-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/kartor/A 50118-2022.png", "A 50118-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomål/A 50118-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomål/A 50118-2022.docx", "A 50118-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomålsmail/A 50118-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/klagomålsmail/A 50118-2022.docx", "A 50118-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsyn/A 50118-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsyn/A 50118-2022.docx", "A 50118-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsynsmail/A 50118-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BROMOLLA/tillsynsmail/A 50118-2022.docx", "A 50118-2022")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -572,7 +572,7 @@
         <v>44967</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44860</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43348</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>43353</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43353</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>43353</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>43353</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>43353</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43353</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43374</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43510</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43534</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>43564</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43613</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43648</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43679</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43753</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43780</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43909</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43984</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44015</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44085</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44123</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44153</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44161</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44221</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44286</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44596</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44596</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44804</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44805</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44825</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44831</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44862</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44924</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44993</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45033</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>45068</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>45068</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>45141</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45141</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45145</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
